--- a/challenge_4/Solution_Sketch/Walt Disney - Raik.xlsx
+++ b/challenge_4/Solution_Sketch/Walt Disney - Raik.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/raikolekannenberg/Desktop/GitHub/SmartSystemsBS14/challenge_4/Solution Sketch/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FF095E9-180A-0547-A590-5B160BCB0AC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BC9AAB3-4867-FF45-85AB-56FB15461DB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -58,9 +58,6 @@
 • What are weak points and how can we cope with them?</t>
   </si>
   <si>
-    <t>Ferry´s that can alter the waterlevel, so that the ferry can allways operate. This generates more revenue which will be used for the captain´s salary and for the Ferry´s that need to be repared.</t>
-  </si>
-  <si>
     <t>The ferry´s need to get upgraded so that they can alter the waterlevel</t>
   </si>
   <si>
@@ -74,6 +71,9 @@
   </si>
   <si>
     <t>Build a better webpage that is more relaible, which uses data from diffrenent sources(watterlevel sensor, twitter api, hvv api….) and build a sign at the docks, which gives infos about the ferry´s (good for people who dont have access to the internet). Pay the captains more by getting more reveneu thro selling beverages on the docks and one the ferry´s. And use a crowed founding method to pay for the repairs.</t>
+  </si>
+  <si>
+    <t>Ferry´s that can alter the waterlevel, so that the ferry can allways operate at any given time. This generates more revenue which will be used for the captain´s salary and for the Ferry´s repairs.</t>
   </si>
 </sst>
 </file>
@@ -485,26 +485,26 @@
       <c r="B6" s="6"/>
       <c r="C6" s="7"/>
     </row>
-    <row r="7" spans="1:3" ht="49" customHeight="1">
+    <row r="7" spans="1:3" ht="57" customHeight="1">
       <c r="A7" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="C7" s="14" t="s">
         <v>9</v>
-      </c>
-      <c r="C7" s="14" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="89" customHeight="1">
       <c r="A8" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B8" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="14" t="s">
         <v>11</v>
-      </c>
-      <c r="C8" s="14" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="15.75" customHeight="1">

--- a/challenge_4/Solution_Sketch/Walt Disney - Raik.xlsx
+++ b/challenge_4/Solution_Sketch/Walt Disney - Raik.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/raikolekannenberg/Desktop/GitHub/SmartSystemsBS14/challenge_4/Solution Sketch/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/raikolekannenberg/Desktop/GitHub/SmartSystemsBS14/challenge_4/Solution_Sketch/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BC9AAB3-4867-FF45-85AB-56FB15461DB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47E40A66-40AD-5147-8D30-1C4AF5A1C110}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabellenblatt1" sheetId="1" r:id="rId1"/>
@@ -67,13 +67,13 @@
     <t>To implement the idea we need access to the diffrenet data to build the website. We need to caculate if selling beverages creates more revenue, so that the captains can be payed more.</t>
   </si>
   <si>
-    <t>Is there enough data to build a relaible website that the people can use. Is it possible to create enough revenue for the repairs and for the captains? Is crowed founding really realistic to pay for the repairs?</t>
-  </si>
-  <si>
-    <t>Build a better webpage that is more relaible, which uses data from diffrenent sources(watterlevel sensor, twitter api, hvv api….) and build a sign at the docks, which gives infos about the ferry´s (good for people who dont have access to the internet). Pay the captains more by getting more reveneu thro selling beverages on the docks and one the ferry´s. And use a crowed founding method to pay for the repairs.</t>
-  </si>
-  <si>
     <t>Ferry´s that can alter the waterlevel, so that the ferry can allways operate at any given time. This generates more revenue which will be used for the captain´s salary and for the Ferry´s repairs.</t>
+  </si>
+  <si>
+    <t>Is there enough data to build a relaible website that the people can use. Is it possible to create enough revenue for the repairs and for the captains? Is crowed funding really realistic to pay for the repairs?</t>
+  </si>
+  <si>
+    <t>Build a better webpage that is more relaible, which uses data from diffrenent sources(watterlevel sensor, twitter api, hvv api….) and build a sign at the docks, which gives infos about the ferry´s (good for people who dont have access to the internet). Pay the captains more by getting more reveneu thro selling beverages on the docks and one the ferry´s. And use a crowed funding method to pay for the repairs.</t>
   </si>
 </sst>
 </file>
@@ -92,6 +92,7 @@
       <sz val="13"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -112,12 +113,14 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -128,12 +131,14 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Symbol"/>
+      <charset val="2"/>
     </font>
     <font>
       <b/>
@@ -141,6 +146,7 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Symbol"/>
+      <charset val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -191,7 +197,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -217,6 +223,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -440,7 +449,7 @@
   <dimension ref="A1:C42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -487,7 +496,7 @@
     </row>
     <row r="7" spans="1:3" ht="57" customHeight="1">
       <c r="A7" s="13" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B7" s="11" t="s">
         <v>8</v>
@@ -498,13 +507,13 @@
     </row>
     <row r="8" spans="1:3" ht="89" customHeight="1">
       <c r="A8" s="11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B8" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="14" t="s">
-        <v>11</v>
+      <c r="C8" s="15" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="15.75" customHeight="1">
